--- a/data/dictionaries/CDRDataDictionary.xlsx
+++ b/data/dictionaries/CDRDataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orrdi\iCloudDrive\Documents\school\NU\MSDS\ANA699B\weeklyUpdateSlides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dillorr/defaultRate/dillon/defaultRate/data/dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E85975A-2325-4644-93B5-2055453FDC28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DE7FF-DFAB-274B-B77B-FA116E7CCF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{33BAC91E-BA5C-48C8-A545-76BCAB170AC0}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="17460" windowHeight="21940" xr2:uid="{33BAC91E-BA5C-48C8-A545-76BCAB170AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Variable</t>
   </si>
@@ -239,6 +239,21 @@
 B—Average,
 S—Substituted, or
 P—Lead School Combo </t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
 </sst>
 </file>
@@ -602,256 +617,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D8BD4-6C92-46F2-9D8D-355879AC3F32}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
